--- a/lovebabbar/Love Babbar FINAL450.xlsx
+++ b/lovebabbar/Love Babbar FINAL450.xlsx
@@ -47,15 +47,15 @@
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
+    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
   </si>
   <si>
-    <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Move all the negative elements to one side of the array </t>
-  </si>
-  <si>
     <t>Find the Union and Intersection of the two sorted arrays.</t>
   </si>
   <si>
@@ -1085,7 +1085,7 @@
     <t>Making wired Connections</t>
   </si>
   <si>
-    <t xml:space="preserve">word Ladder </t>
+    <t>word Ladder</t>
   </si>
   <si>
     <t>Dijkstra algo</t>
@@ -1421,8 +1421,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -1483,7 +1483,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1501,33 +1501,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1547,11 +1524,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1594,14 +1586,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,7 +1609,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1639,7 +1639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,7 +1657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1663,13 +1675,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,115 +1801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,18 +1823,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1835,20 +1835,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1864,6 +1853,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,24 +1883,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1922,18 +1916,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1942,131 +1942,131 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2085,6 +2085,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2477,8 +2480,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.475" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -2538,11 +2541,11 @@
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:3">
@@ -2550,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>7</v>
@@ -2561,32 +2564,32 @@
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:3">
       <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">
@@ -2604,132 +2607,132 @@
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:3">
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
@@ -2740,7 +2743,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
@@ -2751,7 +2754,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
@@ -2762,7 +2765,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
@@ -2773,7 +2776,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
@@ -2784,7 +2787,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
@@ -2795,7 +2798,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
@@ -2806,7 +2809,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
@@ -2817,18 +2820,18 @@
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
@@ -2839,7 +2842,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
@@ -2850,7 +2853,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
@@ -2861,7 +2864,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
@@ -2872,7 +2875,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
@@ -2883,7 +2886,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
@@ -2894,7 +2897,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
@@ -2905,20 +2908,20 @@
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="9"/>
       <c r="C42" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
@@ -2929,7 +2932,7 @@
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
@@ -2940,7 +2943,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
@@ -2951,7 +2954,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
@@ -2962,7 +2965,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
@@ -2973,7 +2976,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
@@ -2984,7 +2987,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
@@ -2995,7 +2998,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
@@ -3006,7 +3009,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
@@ -3017,7 +3020,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
@@ -3028,7 +3031,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -3044,7 +3047,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
@@ -3055,7 +3058,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
@@ -3066,7 +3069,7 @@
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
@@ -3077,7 +3080,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
@@ -3088,7 +3091,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
@@ -3099,7 +3102,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
@@ -3110,7 +3113,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
@@ -3121,7 +3124,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
@@ -3132,7 +3135,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
@@ -3143,7 +3146,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
@@ -3154,7 +3157,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
@@ -3165,7 +3168,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
@@ -3176,7 +3179,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
@@ -3187,7 +3190,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
@@ -3198,7 +3201,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
@@ -3209,7 +3212,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
@@ -3220,7 +3223,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
@@ -3231,7 +3234,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
@@ -3242,7 +3245,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
@@ -3253,7 +3256,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
@@ -3264,7 +3267,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
@@ -3275,7 +3278,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
@@ -3286,7 +3289,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
@@ -3297,7 +3300,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
@@ -3308,7 +3311,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
@@ -3319,7 +3322,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
@@ -3330,7 +3333,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
@@ -3341,7 +3344,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
@@ -3352,7 +3355,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
@@ -3363,7 +3366,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
@@ -3374,7 +3377,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
@@ -3385,7 +3388,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
@@ -3396,7 +3399,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
@@ -3407,7 +3410,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
@@ -3418,7 +3421,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
@@ -3429,7 +3432,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
@@ -3440,7 +3443,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
@@ -3451,7 +3454,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
@@ -3462,7 +3465,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
@@ -3473,7 +3476,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
@@ -3484,7 +3487,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
@@ -3495,7 +3498,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
@@ -3506,7 +3509,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
@@ -3522,7 +3525,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
@@ -3533,7 +3536,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3544,7 +3547,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3555,7 +3558,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3566,7 +3569,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3577,7 +3580,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3588,7 +3591,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3599,7 +3602,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3610,7 +3613,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3621,7 +3624,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3632,7 +3635,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3643,7 +3646,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3654,7 +3657,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3665,7 +3668,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3676,7 +3679,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3687,7 +3690,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3698,7 +3701,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3709,7 +3712,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3720,7 +3723,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3731,7 +3734,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3742,7 +3745,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -3753,7 +3756,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -3764,7 +3767,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -3775,7 +3778,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -3786,7 +3789,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -3797,7 +3800,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -3808,7 +3811,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -3819,7 +3822,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -3830,7 +3833,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -3841,7 +3844,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -3852,7 +3855,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -3863,7 +3866,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -3874,7 +3877,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -3885,7 +3888,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -3896,7 +3899,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -3907,7 +3910,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -3922,7 +3925,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -3933,7 +3936,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -3944,7 +3947,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -3955,7 +3958,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -3966,7 +3969,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -3977,7 +3980,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -3988,7 +3991,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -3999,7 +4002,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -4010,7 +4013,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -4021,7 +4024,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -4032,7 +4035,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -4043,7 +4046,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4054,7 +4057,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4065,7 +4068,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4076,7 +4079,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4087,7 +4090,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4098,7 +4101,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4109,7 +4112,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4120,7 +4123,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4131,7 +4134,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4142,7 +4145,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4153,7 +4156,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4164,7 +4167,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4175,7 +4178,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4186,7 +4189,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4197,7 +4200,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4208,7 +4211,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4219,7 +4222,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4230,7 +4233,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4241,7 +4244,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4252,7 +4255,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4263,7 +4266,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4274,7 +4277,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4285,7 +4288,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4296,7 +4299,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4307,7 +4310,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4318,66 +4321,66 @@
       <c r="A177" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
       <c r="A178" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B178" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B179" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
       <c r="A180" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B180" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B182" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
@@ -4388,7 +4391,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
@@ -4399,304 +4402,304 @@
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B185" s="8" t="s">
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B186" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
       <c r="A187" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
       <c r="A188" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
       <c r="A189" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
       <c r="A190" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
       <c r="A191" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
       <c r="A192" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B192" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
       <c r="A193" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B193" s="8" t="s">
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
       <c r="A194" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B194" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
       <c r="A195" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
       <c r="A196" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
       <c r="A197" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B197" s="8" t="s">
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
       <c r="A198" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
       <c r="A199" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
       <c r="A200" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
       <c r="A201" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B201" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
       <c r="A202" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
       <c r="A203" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B203" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
       <c r="A204" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="8" t="s">
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
       <c r="A205" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B205" s="8" t="s">
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
       <c r="A206" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B206" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
       <c r="A207" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="8" t="s">
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
       <c r="A208" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
       <c r="A209" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B209" s="8" t="s">
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
       <c r="A210" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="8" t="s">
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
       <c r="A211" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B211" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4713,66 +4716,66 @@
       <c r="A214" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B214" s="8" t="s">
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
       <c r="A215" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="8" t="s">
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
       <c r="A216" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B216" s="7" t="s">
+      <c r="B216" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
       <c r="A217" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="8" t="s">
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
       <c r="A218" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
       <c r="A219" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B219" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -4783,128 +4786,128 @@
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
       <c r="A221" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B221" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
       <c r="A222" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
       <c r="A223" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B223" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
       <c r="A224" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
       <c r="A225" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B225" s="8" t="s">
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
       <c r="A226" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="8" t="s">
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
       <c r="A227" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
       <c r="A228" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B228" s="8" t="s">
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
       <c r="A229" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
       <c r="A230" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="8" t="s">
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
       <c r="A231" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -4915,7 +4918,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -4926,7 +4929,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -4937,18 +4940,18 @@
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
       <c r="A235" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -4967,7 +4970,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -4978,7 +4981,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -4989,7 +4992,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -5000,7 +5003,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -5011,7 +5014,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
@@ -5022,7 +5025,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -5033,7 +5036,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -5044,7 +5047,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5055,7 +5058,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5066,7 +5069,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5077,7 +5080,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5088,7 +5091,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5099,7 +5102,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5110,7 +5113,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5121,7 +5124,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5132,7 +5135,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5143,7 +5146,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5154,7 +5157,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5165,7 +5168,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5176,7 +5179,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5187,7 +5190,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5198,7 +5201,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5209,7 +5212,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5220,7 +5223,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5231,7 +5234,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5242,7 +5245,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5253,7 +5256,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5264,7 +5267,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5275,7 +5278,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5286,7 +5289,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5297,7 +5300,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5308,7 +5311,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5319,7 +5322,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5330,7 +5333,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5341,7 +5344,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5360,7 +5363,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5371,7 +5374,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5382,7 +5385,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5393,7 +5396,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5404,7 +5407,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5415,7 +5418,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5426,7 +5429,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5437,7 +5440,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5448,7 +5451,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5459,7 +5462,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5470,7 +5473,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5481,7 +5484,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5492,7 +5495,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5503,7 +5506,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5514,7 +5517,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5525,7 +5528,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5536,7 +5539,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5547,7 +5550,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5558,7 +5561,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5577,7 +5580,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5588,7 +5591,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5599,7 +5602,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5610,7 +5613,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5621,7 +5624,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5632,7 +5635,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5643,7 +5646,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5654,7 +5657,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5665,7 +5668,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5676,7 +5679,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5687,7 +5690,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5698,7 +5701,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5709,18 +5712,18 @@
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
       <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5731,7 +5734,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5742,7 +5745,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -5753,7 +5756,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -5764,7 +5767,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -5775,7 +5778,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -5786,7 +5789,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -5797,7 +5800,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -5808,7 +5811,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -5819,7 +5822,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -5830,7 +5833,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -5841,7 +5844,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -5852,7 +5855,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -5863,7 +5866,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -5874,7 +5877,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -5885,7 +5888,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
@@ -5896,7 +5899,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
@@ -5907,7 +5910,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
@@ -5918,7 +5921,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
@@ -5929,7 +5932,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
@@ -5940,7 +5943,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
@@ -5951,7 +5954,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
@@ -5962,7 +5965,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
@@ -5973,7 +5976,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
@@ -5984,7 +5987,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -6003,7 +6006,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
@@ -6014,7 +6017,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
@@ -6025,7 +6028,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
@@ -6036,7 +6039,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
@@ -6047,7 +6050,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
@@ -6058,7 +6061,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
@@ -6069,7 +6072,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
@@ -6080,18 +6083,18 @@
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
       <c r="A344" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="11" t="s">
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
@@ -6102,7 +6105,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
@@ -6113,7 +6116,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
@@ -6124,7 +6127,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
@@ -6135,7 +6138,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
@@ -6146,7 +6149,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
@@ -6157,7 +6160,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
@@ -6168,7 +6171,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
@@ -6179,7 +6182,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
@@ -6190,7 +6193,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6205,242 +6208,242 @@
       <c r="A356" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="8" t="s">
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
       <c r="A357" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B357" s="8" t="s">
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
       <c r="A358" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B358" s="8" t="s">
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
       <c r="A359" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B359" s="7" t="s">
+      <c r="B359" s="8" t="s">
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
       <c r="A360" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B360" s="8" t="s">
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
       <c r="A361" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B361" s="8" t="s">
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
       <c r="A362" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B362" s="7" t="s">
+      <c r="B362" s="8" t="s">
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
       <c r="A363" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B363" s="8" t="s">
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
       <c r="A364" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B364" s="7" t="s">
+      <c r="B364" s="8" t="s">
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
       <c r="A365" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B365" s="8" t="s">
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
       <c r="A366" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B366" s="8" t="s">
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
       <c r="A367" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B367" s="8" t="s">
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
       <c r="A368" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B368" s="7" t="s">
+      <c r="B368" s="8" t="s">
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
       <c r="A369" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B369" s="8" t="s">
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
       <c r="A370" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B370" s="8" t="s">
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
       <c r="A371" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B371" s="7" t="s">
+      <c r="B371" s="8" t="s">
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
       <c r="A372" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B372" s="8" t="s">
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
       <c r="A373" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B373" s="7" t="s">
+      <c r="B373" s="8" t="s">
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
       <c r="A374" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B374" s="8" t="s">
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
       <c r="A375" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B375" s="7" t="s">
+      <c r="B375" s="8" t="s">
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
       <c r="A376" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B376" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
       <c r="A377" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B377" s="7" t="s">
+      <c r="B377" s="8" t="s">
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
@@ -6451,51 +6454,51 @@
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
       <c r="A379" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B379" s="7" t="s">
+      <c r="B379" s="8" t="s">
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
       <c r="A380" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B380" s="8" t="s">
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
       <c r="A381" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B381" s="7" t="s">
+      <c r="B381" s="8" t="s">
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
       <c r="A382" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B382" s="8" t="s">
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
@@ -6506,18 +6509,18 @@
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
       <c r="A384" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B384" s="8" t="s">
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
@@ -6528,7 +6531,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
@@ -6539,7 +6542,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
@@ -6550,7 +6553,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
@@ -6561,7 +6564,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
@@ -6572,7 +6575,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
@@ -6583,7 +6586,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
@@ -6594,7 +6597,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
@@ -6605,7 +6608,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
@@ -6616,7 +6619,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
@@ -6627,7 +6630,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
@@ -6638,7 +6641,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
@@ -6649,7 +6652,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
@@ -6660,7 +6663,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
@@ -6671,7 +6674,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
@@ -6682,7 +6685,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6701,7 +6704,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
@@ -6712,7 +6715,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
@@ -6723,7 +6726,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
@@ -6734,7 +6737,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
@@ -6745,7 +6748,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
@@ -6756,7 +6759,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -6775,7 +6778,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
@@ -6786,7 +6789,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
@@ -6797,7 +6800,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
@@ -6808,7 +6811,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
@@ -6819,7 +6822,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
@@ -6830,7 +6833,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
@@ -6841,7 +6844,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
@@ -6852,7 +6855,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
@@ -6863,7 +6866,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
@@ -6874,7 +6877,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
@@ -6885,7 +6888,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
@@ -6896,7 +6899,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
@@ -6907,7 +6910,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
@@ -6918,7 +6921,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
@@ -6929,7 +6932,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
@@ -6940,7 +6943,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
@@ -6951,7 +6954,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
@@ -6962,7 +6965,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
@@ -6973,7 +6976,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
@@ -6984,7 +6987,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
@@ -6995,7 +6998,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
@@ -7006,7 +7009,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
@@ -7017,7 +7020,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
@@ -7028,7 +7031,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
@@ -7039,7 +7042,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
@@ -7050,7 +7053,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
@@ -7061,7 +7064,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
@@ -7072,7 +7075,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
@@ -7083,7 +7086,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
@@ -7094,7 +7097,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
@@ -7105,7 +7108,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
@@ -7116,7 +7119,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
@@ -7127,7 +7130,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
@@ -7138,7 +7141,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
@@ -7149,7 +7152,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
@@ -7160,7 +7163,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
@@ -7171,7 +7174,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
@@ -7182,7 +7185,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
@@ -7193,7 +7196,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
@@ -7204,7 +7207,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
@@ -7215,7 +7218,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
@@ -7226,7 +7229,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
@@ -7237,7 +7240,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
@@ -7248,7 +7251,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
@@ -7259,7 +7262,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
@@ -7270,7 +7273,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
@@ -7281,7 +7284,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
@@ -7292,7 +7295,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
@@ -7303,7 +7306,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
@@ -7314,7 +7317,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
@@ -7325,7 +7328,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
@@ -7336,7 +7339,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
@@ -7347,7 +7350,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
@@ -7358,7 +7361,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
@@ -7369,7 +7372,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
@@ -7380,7 +7383,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
@@ -7391,7 +7394,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
@@ -7402,7 +7405,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
@@ -7413,7 +7416,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
@@ -7424,7 +7427,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7444,7 +7447,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
@@ -7455,7 +7458,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
@@ -7466,7 +7469,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
@@ -7477,7 +7480,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
@@ -7488,7 +7491,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
@@ -7499,7 +7502,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
@@ -7510,18 +7513,18 @@
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
       <c r="A479" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B479" s="8" t="s">
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
@@ -7532,7 +7535,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
@@ -7543,7 +7546,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7884,7 +7887,7 @@
     <hyperlink ref="B363" r:id="rId321" display="flood fill algo"/>
     <hyperlink ref="B364" r:id="rId322" display="Clone a graph"/>
     <hyperlink ref="B365" r:id="rId323" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId324" display="word Ladder "/>
+    <hyperlink ref="B366" r:id="rId324" display="word Ladder"/>
     <hyperlink ref="B367" r:id="rId325" display="Dijkstra algo"/>
     <hyperlink ref="B368" r:id="rId326" display="Implement Topological Sort "/>
     <hyperlink ref="B369" r:id="rId327" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
